--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8546833333333334</v>
+        <v>4.713280333333334</v>
       </c>
       <c r="H2">
-        <v>2.56405</v>
+        <v>14.139841</v>
       </c>
       <c r="I2">
-        <v>0.3097546281380015</v>
+        <v>0.6942627767023021</v>
       </c>
       <c r="J2">
-        <v>0.3097546281380014</v>
+        <v>0.6942627767023022</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>6.949630179233333</v>
+        <v>17.88780538591745</v>
       </c>
       <c r="R2">
-        <v>62.5466716131</v>
+        <v>160.990248473257</v>
       </c>
       <c r="S2">
-        <v>0.006476955561577235</v>
+        <v>0.007249587415118269</v>
       </c>
       <c r="T2">
-        <v>0.006476955561577233</v>
+        <v>0.00724958741511827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8546833333333334</v>
+        <v>4.713280333333334</v>
       </c>
       <c r="H3">
-        <v>2.56405</v>
+        <v>14.139841</v>
       </c>
       <c r="I3">
-        <v>0.3097546281380015</v>
+        <v>0.6942627767023021</v>
       </c>
       <c r="J3">
-        <v>0.3097546281380014</v>
+        <v>0.6942627767023022</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>208.0097516670889</v>
+        <v>1147.101193433093</v>
       </c>
       <c r="R3">
-        <v>1872.0877650038</v>
+        <v>10323.91074089784</v>
       </c>
       <c r="S3">
-        <v>0.1938621024681746</v>
+        <v>0.464898303417738</v>
       </c>
       <c r="T3">
-        <v>0.1938621024681746</v>
+        <v>0.4648983034177381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8546833333333334</v>
+        <v>4.713280333333334</v>
       </c>
       <c r="H4">
-        <v>2.56405</v>
+        <v>14.139841</v>
       </c>
       <c r="I4">
-        <v>0.3097546281380015</v>
+        <v>0.6942627767023021</v>
       </c>
       <c r="J4">
-        <v>0.3097546281380014</v>
+        <v>0.6942627767023022</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>28.56244807604444</v>
+        <v>140.4622158406703</v>
       </c>
       <c r="R4">
-        <v>257.0620326844</v>
+        <v>1264.159942566033</v>
       </c>
       <c r="S4">
-        <v>0.02661979157843556</v>
+        <v>0.0569266654175376</v>
       </c>
       <c r="T4">
-        <v>0.02661979157843555</v>
+        <v>0.0569266654175376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8546833333333334</v>
+        <v>4.713280333333334</v>
       </c>
       <c r="H5">
-        <v>2.56405</v>
+        <v>14.139841</v>
       </c>
       <c r="I5">
-        <v>0.3097546281380015</v>
+        <v>0.6942627767023021</v>
       </c>
       <c r="J5">
-        <v>0.3097546281380014</v>
+        <v>0.6942627767023022</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>88.83804060619444</v>
+        <v>407.5893661655442</v>
       </c>
       <c r="R5">
-        <v>799.5423654557499</v>
+        <v>3668.304295489898</v>
       </c>
       <c r="S5">
-        <v>0.0827957785298141</v>
+        <v>0.1651882204519082</v>
       </c>
       <c r="T5">
-        <v>0.08279577852981408</v>
+        <v>0.1651882204519082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.753828</v>
       </c>
       <c r="I6">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="J6">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>10.174417954584</v>
+        <v>4.748833082084001</v>
       </c>
       <c r="R6">
-        <v>91.569761591256</v>
+        <v>42.73949773875601</v>
       </c>
       <c r="S6">
-        <v>0.009482411474738927</v>
+        <v>0.001924611756760107</v>
       </c>
       <c r="T6">
-        <v>0.009482411474738927</v>
+        <v>0.001924611756760107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.753828</v>
       </c>
       <c r="I7">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="J7">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
-        <v>304.531046618032</v>
+        <v>304.5310466180321</v>
       </c>
       <c r="R7">
-        <v>2740.779419562288</v>
+        <v>2740.779419562289</v>
       </c>
       <c r="S7">
-        <v>0.283818563750279</v>
+        <v>0.1234206430271741</v>
       </c>
       <c r="T7">
-        <v>0.283818563750279</v>
+        <v>0.1234206430271741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.753828</v>
       </c>
       <c r="I8">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="J8">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>41.816078990816</v>
+        <v>37.289740299396</v>
       </c>
       <c r="R8">
-        <v>376.3447109173441</v>
+        <v>335.607662694564</v>
       </c>
       <c r="S8">
-        <v>0.03897198532840451</v>
+        <v>0.01511282273902403</v>
       </c>
       <c r="T8">
-        <v>0.03897198532840451</v>
+        <v>0.01511282273902403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.753828</v>
       </c>
       <c r="I9">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="J9">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>130.06092872318</v>
+        <v>108.206335220776</v>
       </c>
       <c r="R9">
-        <v>1170.54835850862</v>
+        <v>973.8570169869841</v>
       </c>
       <c r="S9">
-        <v>0.1212149184793647</v>
+        <v>0.04385397029588561</v>
       </c>
       <c r="T9">
-        <v>0.1212149184793647</v>
+        <v>0.04385397029588562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4843330000000001</v>
+        <v>0.6263116666666667</v>
       </c>
       <c r="H10">
-        <v>1.452999</v>
+        <v>1.878935</v>
       </c>
       <c r="I10">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111802</v>
       </c>
       <c r="J10">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111803</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>3.938224956922</v>
+        <v>2.376973235610556</v>
       </c>
       <c r="R10">
-        <v>35.444024612298</v>
+        <v>21.392759120495</v>
       </c>
       <c r="S10">
-        <v>0.003670369124633358</v>
+        <v>0.0009633420580772615</v>
       </c>
       <c r="T10">
-        <v>0.003670369124633357</v>
+        <v>0.0009633420580772617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4843330000000001</v>
+        <v>0.6263116666666667</v>
       </c>
       <c r="H11">
-        <v>1.452999</v>
+        <v>1.878935</v>
       </c>
       <c r="I11">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111802</v>
       </c>
       <c r="J11">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111803</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>117.8752212954227</v>
+        <v>152.4294778762511</v>
       </c>
       <c r="R11">
-        <v>1060.876991658804</v>
+        <v>1371.86530088626</v>
       </c>
       <c r="S11">
-        <v>0.1098580140887094</v>
+        <v>0.06177676918235556</v>
       </c>
       <c r="T11">
-        <v>0.1098580140887093</v>
+        <v>0.06177676918235556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4843330000000001</v>
+        <v>0.6263116666666667</v>
       </c>
       <c r="H12">
-        <v>1.452999</v>
+        <v>1.878935</v>
       </c>
       <c r="I12">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111802</v>
       </c>
       <c r="J12">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111803</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>16.18580312086133</v>
+        <v>18.66494633996167</v>
       </c>
       <c r="R12">
-        <v>145.672228087752</v>
+        <v>167.984517059655</v>
       </c>
       <c r="S12">
-        <v>0.0150849361532245</v>
+        <v>0.007564547867709475</v>
       </c>
       <c r="T12">
-        <v>0.0150849361532245</v>
+        <v>0.007564547867709475</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4843330000000001</v>
+        <v>0.6263116666666667</v>
       </c>
       <c r="H13">
-        <v>1.452999</v>
+        <v>1.878935</v>
       </c>
       <c r="I13">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111802</v>
       </c>
       <c r="J13">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111803</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>50.34284985189834</v>
+        <v>54.16142414304778</v>
       </c>
       <c r="R13">
-        <v>453.085648667085</v>
+        <v>487.45281728743</v>
       </c>
       <c r="S13">
-        <v>0.04691881336481011</v>
+        <v>0.02195059541297572</v>
       </c>
       <c r="T13">
-        <v>0.0469188133648101</v>
+        <v>0.02195059541297573</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1689346666666667</v>
+        <v>0.1980316666666667</v>
       </c>
       <c r="H14">
-        <v>0.506804</v>
+        <v>0.594095</v>
       </c>
       <c r="I14">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="J14">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>1.373647305378667</v>
+        <v>0.7515682630905558</v>
       </c>
       <c r="R14">
-        <v>12.362825748408</v>
+        <v>6.764114367815001</v>
       </c>
       <c r="S14">
-        <v>0.001280219569208708</v>
+        <v>0.0003045963271711958</v>
       </c>
       <c r="T14">
-        <v>0.001280219569208708</v>
+        <v>0.0003045963271711958</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1689346666666667</v>
+        <v>0.1980316666666667</v>
       </c>
       <c r="H15">
-        <v>0.506804</v>
+        <v>0.594095</v>
       </c>
       <c r="I15">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="J15">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>41.11471078328712</v>
+        <v>48.19623385529112</v>
       </c>
       <c r="R15">
-        <v>370.032397049584</v>
+        <v>433.7661046976201</v>
       </c>
       <c r="S15">
-        <v>0.03831832022748416</v>
+        <v>0.01953301720782865</v>
       </c>
       <c r="T15">
-        <v>0.03831832022748415</v>
+        <v>0.01953301720782865</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1689346666666667</v>
+        <v>0.1980316666666667</v>
       </c>
       <c r="H16">
-        <v>0.506804</v>
+        <v>0.594095</v>
       </c>
       <c r="I16">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="J16">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>5.645585279043556</v>
+        <v>5.901615168081667</v>
       </c>
       <c r="R16">
-        <v>50.81026751139201</v>
+        <v>53.114536512735</v>
       </c>
       <c r="S16">
-        <v>0.00526160443482672</v>
+        <v>0.002391812417921248</v>
       </c>
       <c r="T16">
-        <v>0.005261604434826719</v>
+        <v>0.002391812417921248</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1689346666666667</v>
+        <v>0.1980316666666667</v>
       </c>
       <c r="H17">
-        <v>0.506804</v>
+        <v>0.594095</v>
       </c>
       <c r="I17">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="J17">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>17.55951495929556</v>
+        <v>17.12514337976778</v>
       </c>
       <c r="R17">
-        <v>158.03563463366</v>
+        <v>154.12629041791</v>
       </c>
       <c r="S17">
-        <v>0.01636521586631458</v>
+        <v>0.006940495004814862</v>
       </c>
       <c r="T17">
-        <v>0.01636521586631458</v>
+        <v>0.006940495004814863</v>
       </c>
     </row>
   </sheetData>
